--- a/individual_results/avey/461.xlsx
+++ b/individual_results/avey/461.xlsx
@@ -555,7 +555,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
         <v>0.4</v>
@@ -564,7 +564,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>0.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T2" t="n">
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
@@ -700,7 +700,9 @@
       <c r="B4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D4" t="n">
         <v>0.5714285714285715</v>
       </c>
@@ -708,7 +710,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -738,11 +740,15 @@
       <c r="R4" t="n">
         <v>0.5</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T4" t="n">
         <v>0.5</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -759,7 +765,9 @@
       <c r="B5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D5" t="n">
         <v>0.7692307692307692</v>
       </c>
@@ -767,7 +775,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -797,11 +805,15 @@
       <c r="R5" t="n">
         <v>0.5</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T5" t="n">
         <v>0.5</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -819,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="D6" t="n">
         <v>0.58688267143572</v>
@@ -828,7 +840,7 @@
         <v>0.631251450669265</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8262346571285599</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -867,13 +879,13 @@
         <v>0.17376534287144</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.17376534287144</v>
       </c>
       <c r="T6" t="n">
         <v>0.2754115523761866</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="V6" t="n">
         <v>0.8262346571285599</v>

--- a/individual_results/avey/461.xlsx
+++ b/individual_results/avey/461.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
@@ -733,9 +733,7 @@
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.5</v>
@@ -779,7 +777,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -798,9 +796,7 @@
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.3125</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.5</v>
@@ -846,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7967075809905066</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -870,7 +866,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="P6" t="n">
-        <v>0.41311732856428</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -992,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1016,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1065,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1089,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1133,9 +1129,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>2</v>
@@ -1145,9 +1139,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1185,7 +1177,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
         <v>0.5</v>
